--- a/testing_sarima_results.xlsx
+++ b/testing_sarima_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camiloariasm/Google Drive/laboral/shcp_ing_tribut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5433E6B-46CD-F949-AAF0-0C7DBAC9391C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA33E5-2917-B44C-9697-E9D82502F7A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{7E512723-1453-7B46-AD39-6D25E4469423}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>NaN</t>
   </si>
@@ -57,9 +57,6 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>ame: iva_neto_(mdp)_r, dtype: float64</t>
-  </si>
-  <si>
     <t>PRED 1</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Real 3</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>APE</t>
   </si>
 </sst>
 </file>
@@ -455,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD9012-30A4-A74B-8FEE-AB9D37BF2B99}">
   <dimension ref="A2:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,16 +530,22 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>14</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>15</v>
       </c>
       <c r="R15" t="s">
         <v>4</v>
@@ -551,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="V15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -578,6 +587,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="K16" s="2"/>
+      <c r="L16" t="e">
+        <f>J16/E16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE(L17:L28)</f>
+        <v>1.2222322982849982</v>
+      </c>
       <c r="P16">
         <v>9786.0951370000002</v>
       </c>
@@ -644,6 +661,10 @@
         <f>AVERAGE(J17:J28)</f>
         <v>10138.329534916667</v>
       </c>
+      <c r="L17">
+        <f>ABS(J17/E17)</f>
+        <v>3.3102355913387882</v>
+      </c>
       <c r="P17">
         <v>1812.304189</v>
       </c>
@@ -687,6 +708,10 @@
         <v>8511.8357319999996</v>
       </c>
       <c r="K18" s="2"/>
+      <c r="L18">
+        <f t="shared" ref="L18:L28" si="6">ABS(J18/E18)</f>
+        <v>2.3227594161236396</v>
+      </c>
       <c r="P18">
         <v>-2207.8481710000001</v>
       </c>
@@ -730,6 +755,10 @@
         <v>22859.445497000001</v>
       </c>
       <c r="K19" s="2"/>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>1.0087026259422391</v>
+      </c>
       <c r="P19">
         <v>705.18884400000002</v>
       </c>
@@ -773,6 +802,10 @@
         <v>12138.407706</v>
       </c>
       <c r="K20" s="2"/>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>1.0929123519020372</v>
+      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -798,6 +831,10 @@
         <v>5806.958783</v>
       </c>
       <c r="K21" s="2"/>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0.9148309297032412</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -823,14 +860,18 @@
         <v>1.8019060000000025</v>
       </c>
       <c r="K22" s="2"/>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>1.6606934649049679E-2</v>
+      </c>
       <c r="P22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" t="s">
-        <v>17</v>
-      </c>
       <c r="R22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S22" t="s">
         <v>5</v>
@@ -842,10 +883,10 @@
         <v>7</v>
       </c>
       <c r="V22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -872,6 +913,10 @@
         <v>18224.06422</v>
       </c>
       <c r="K23" s="2"/>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>1.0023646434543614</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23">
         <v>73915.135779000004</v>
@@ -880,7 +925,7 @@
         <v>87931.860176000002</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R26" si="6">P23-Q23</f>
+        <f t="shared" ref="R23:R26" si="7">P23-Q23</f>
         <v>-14016.724396999998</v>
       </c>
       <c r="S23">
@@ -928,6 +973,10 @@
         <v>10073.722760999999</v>
       </c>
       <c r="K24" s="2"/>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>1.0044238260175409</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24">
         <v>75727.439968000006</v>
@@ -936,15 +985,15 @@
         <v>72777.129774000001</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2950.3101940000051</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S24:S26" si="7">R24^2</f>
+        <f t="shared" ref="S24:S26" si="8">R24^2</f>
         <v>8704330.2408203483</v>
       </c>
       <c r="V24">
-        <f t="shared" ref="V24:V26" si="8">ABS(R24)</f>
+        <f t="shared" ref="V24:V26" si="9">ABS(R24)</f>
         <v>2950.3101940000051</v>
       </c>
     </row>
@@ -972,6 +1021,10 @@
         <v>2465.7809200000002</v>
       </c>
       <c r="K25" s="2"/>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>0.99327947898276669</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25">
         <v>73519.591795999993</v>
@@ -980,15 +1033,15 @@
         <v>75124.369921999998</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1604.7781260000047</v>
       </c>
       <c r="S25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2575312.8336880868</v>
       </c>
       <c r="V25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1604.7781260000047</v>
       </c>
     </row>
@@ -1016,6 +1069,10 @@
         <v>15143.381553000001</v>
       </c>
       <c r="K26" s="2"/>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>1.0000602479017708</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26">
         <v>74224.780639999997</v>
@@ -1024,15 +1081,15 @@
         <v>64535.592808000001</v>
       </c>
       <c r="R26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9689.187831999996</v>
       </c>
       <c r="S26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>93880360.843776777</v>
       </c>
       <c r="V26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9689.187831999996</v>
       </c>
     </row>
@@ -1060,6 +1117,10 @@
         <v>6544.9844160000002</v>
       </c>
       <c r="K27" s="2"/>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>1.0004066340899416</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -1085,19 +1146,23 @@
         <v>8121.7251200000001</v>
       </c>
       <c r="K28" s="2"/>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>1.0002048993145998</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
         <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>6</v>
@@ -1106,10 +1171,16 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -1135,8 +1206,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" t="s">
-        <v>8</v>
+      <c r="L30">
+        <f>J30/E30</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(L31:L36)</f>
+        <v>0.11743101542485507</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -1150,11 +1226,11 @@
         <v>81077.876107000004</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F42" si="9">D31-E31</f>
+        <f t="shared" ref="F31:F42" si="10">D31-E31</f>
         <v>-11767.845805000004</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G42" si="10">F31^2</f>
+        <f t="shared" ref="G31:G42" si="11">F31^2</f>
         <v>138482194.8902562</v>
       </c>
       <c r="H31">
@@ -1166,13 +1242,17 @@
         <v>11007.519844861832</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J40" si="11">ABS(F31)</f>
+        <f t="shared" ref="J31:J40" si="12">ABS(F31)</f>
         <v>11767.845805000004</v>
       </c>
       <c r="K31" s="4">
         <f>AVERAGE(J31:J42)</f>
         <v>9234.4943141666681</v>
       </c>
+      <c r="L31">
+        <f>ABS(J31/E31)</f>
+        <v>0.14514250212314092</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
@@ -1185,20 +1265,24 @@
         <v>77413.340007000006</v>
       </c>
       <c r="F32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3256.0100730000122</v>
       </c>
       <c r="G32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10601601.595477546</v>
       </c>
       <c r="J32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3256.0100730000122</v>
       </c>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f t="shared" ref="L32:L42" si="13">ABS(J32/E32)</f>
+        <v>4.206006448895748E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>42795</v>
       </c>
@@ -1209,20 +1293,24 @@
         <v>54751.115375000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19603.435422999995</v>
       </c>
       <c r="G33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>384294680.38373101</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19603.435422999995</v>
       </c>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f t="shared" si="13"/>
+        <v>0.35804632085999755</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>42826</v>
       </c>
@@ -1233,20 +1321,24 @@
         <v>65857.594026999999</v>
       </c>
       <c r="F34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7465.0277179999975</v>
       </c>
       <c r="G34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55726638.830508254</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7465.0277179999975</v>
       </c>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f t="shared" si="13"/>
+        <v>0.11335105432092644</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>42856</v>
       </c>
@@ -1257,20 +1349,24 @@
         <v>72205.169949999996</v>
       </c>
       <c r="F35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1658.068935000003</v>
       </c>
       <c r="G35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2749192.5932120439</v>
       </c>
       <c r="J35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1658.068935000003</v>
       </c>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <f t="shared" si="13"/>
+        <v>2.2963299389062695E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>42887</v>
       </c>
@@ -1281,20 +1377,24 @@
         <v>72096.666721999994</v>
       </c>
       <c r="F36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1659.8708420000039</v>
       </c>
       <c r="G36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2755171.2121218019</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1659.8708420000039</v>
       </c>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <f t="shared" si="13"/>
+        <v>2.3022851367045259E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>42917</v>
       </c>
@@ -1305,20 +1405,24 @@
         <v>90277.739189</v>
       </c>
       <c r="F37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-16564.193379000004</v>
       </c>
       <c r="G37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>274372502.29690754</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16564.193379000004</v>
       </c>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <f t="shared" si="13"/>
+        <v>0.18348037431821607</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
         <v>42948</v>
       </c>
@@ -1329,20 +1433,24 @@
         <v>80248.384548000002</v>
       </c>
       <c r="F38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6490.4706180000067</v>
       </c>
       <c r="G38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>42126208.843121387</v>
       </c>
       <c r="J38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6490.4706180000067</v>
       </c>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <f t="shared" si="13"/>
+        <v>8.0879766671412279E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
         <v>42979</v>
       </c>
@@ -1353,20 +1461,24 @@
         <v>77765.920173999999</v>
       </c>
       <c r="F39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4024.6896969999943</v>
       </c>
       <c r="G39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16198127.157137906</v>
       </c>
       <c r="J39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4024.6896969999943</v>
       </c>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <f t="shared" si="13"/>
+        <v>5.1753900526024972E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
         <v>43009</v>
       </c>
@@ -1377,20 +1489,24 @@
         <v>62623.450922999997</v>
       </c>
       <c r="F40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11118.691856000005</v>
       </c>
       <c r="G40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123625308.58868083</v>
       </c>
       <c r="J40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11118.691856000005</v>
       </c>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <f t="shared" si="13"/>
+        <v>0.17754837352657601</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
         <v>43040</v>
       </c>
@@ -1401,11 +1517,11 @@
         <v>56081.126838999997</v>
       </c>
       <c r="F41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17663.676272000004</v>
       </c>
       <c r="G41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>312005459.44201595</v>
       </c>
       <c r="J41">
@@ -1413,8 +1529,12 @@
         <v>17663.676272000004</v>
       </c>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <f t="shared" si="13"/>
+        <v>0.31496650063237158</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
         <v>43070</v>
       </c>
@@ -1425,23 +1545,27 @@
         <v>64201.188163999999</v>
       </c>
       <c r="F42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9541.9511520000015</v>
       </c>
       <c r="G42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>91048831.787154153</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42" si="12">ABS(F42)</f>
+        <f t="shared" ref="J42" si="14">ABS(F42)</f>
         <v>9541.9511520000015</v>
       </c>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <f t="shared" si="13"/>
+        <v>0.14862577196586105</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K44" s="2"/>
     </row>
   </sheetData>
